--- a/src/test/resources/dataProvider.xlsx
+++ b/src/test/resources/dataProvider.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yalaa\OneDrive\Masaüstü\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45275C81-A600-4FE4-A419-8CDC95FF23CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B12B8E-4C36-4523-850F-B03717983865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21672" yWindow="696" windowWidth="21600" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22560" yWindow="504" windowWidth="21600" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -43,12 +43,19 @@
   </si>
   <si>
     <t>semih123</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,55 +368,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/dataProvider.xlsx
+++ b/src/test/resources/dataProvider.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>

--- a/src/test/resources/dataProvider.xlsx
+++ b/src/test/resources/dataProvider.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
